--- a/Documents/Weekly Scrum Report.xlsx
+++ b/Documents/Weekly Scrum Report.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mihHliSCrFXZonteFD5t4nmh9L6PQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mi+qs1DZ2ZYNGTSHoWU7PVe/cyeRA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>Week #1 (15 hrs / week)</t>
   </si>
@@ -283,13 +283,28 @@
     <t>Integrate login, signup, profile pages with backend</t>
   </si>
   <si>
-    <t>Peer review of the work doen so far</t>
+    <t>Peer review of the work done so far</t>
   </si>
   <si>
     <t>Functional testing backend and frontend</t>
   </si>
   <si>
     <t>Create search and book flight API</t>
+  </si>
+  <si>
+    <t>Integrate book flight API with node server</t>
+  </si>
+  <si>
+    <t>Integrate search flight API with node server</t>
+  </si>
+  <si>
+    <t>Integrate add  flight API with node server</t>
+  </si>
+  <si>
+    <t>Integrate edit flight API with node server</t>
+  </si>
+  <si>
+    <t>Integrate cancel flight API with node server</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -321,6 +336,12 @@
   <si>
     <t>Sprint 3</t>
   </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +351,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="165" formatCode="mmm-d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -402,6 +423,10 @@
       <u/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
     </font>
   </fonts>
   <fills count="9">
@@ -736,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -866,7 +891,21 @@
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -897,6 +936,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -931,7 +973,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Sprint 1</a:t>
+              <a:t>Planned vs Actual</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1003,11 +1045,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1840270679"/>
-        <c:axId val="1605911987"/>
+        <c:axId val="248024381"/>
+        <c:axId val="984930314"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1840270679"/>
+        <c:axId val="248024381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,10 +1101,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1605911987"/>
+        <c:crossAx val="984930314"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1605911987"/>
+        <c:axId val="984930314"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1179,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1840270679"/>
+        <c:crossAx val="248024381"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1187,7 +1229,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Planned  and Actual</a:t>
+              <a:t>Planned vs Actual</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1259,11 +1301,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1278760301"/>
-        <c:axId val="1456370426"/>
+        <c:axId val="1084968226"/>
+        <c:axId val="49354095"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1278760301"/>
+        <c:axId val="1084968226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,10 +1357,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1456370426"/>
+        <c:crossAx val="49354095"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1456370426"/>
+        <c:axId val="49354095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1435,519 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1278760301"/>
+        <c:crossAx val="1084968226"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Planned vs Actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$42</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$A$43:$A$49</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$B$43:$B$49</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$C$42</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$A$43:$A$49</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$C$43:$C$49</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1852831527"/>
+        <c:axId val="1565885471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1852831527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Calender Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1565885471"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1565885471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852831527"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Planned  and Actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$61</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$A$62:$A$68</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$B$62:$B$68</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$C$61</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$A$62:$A$68</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$C$62:$C$68</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1043577845"/>
+        <c:axId val="1456116632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1043577845"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Calender Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456116632"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456116632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1043577845"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1470,6 +2024,56 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7191375" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="850794793" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7191375" cy="3209925"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="500636230" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2364,7 +2968,7 @@
         <v>420.0</v>
       </c>
       <c r="E5" s="29">
-        <f t="shared" ref="E5:K5" si="2">SUM(E6:E50)</f>
+        <f t="shared" ref="E5:K5" si="2">SUM(E6:E53)</f>
         <v>420</v>
       </c>
       <c r="F5" s="25">
@@ -2392,7 +2996,7 @@
         <v>360</v>
       </c>
       <c r="L5" s="26">
-        <f t="shared" ref="L5:R5" si="3">SUM(L10:L50)</f>
+        <f t="shared" ref="L5:R5" si="3">SUM(L10:L53)</f>
         <v>360</v>
       </c>
       <c r="M5" s="26">
@@ -2420,12 +3024,12 @@
         <v>300</v>
       </c>
       <c r="S5" s="26">
-        <f t="shared" ref="S5:BA5" si="4">SUM(S6:S50)</f>
+        <f t="shared" ref="S5:BA5" si="4">SUM(S6:S53)</f>
         <v>300</v>
       </c>
       <c r="T5" s="26">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="U5" s="26">
         <f t="shared" si="4"/>
@@ -2433,7 +3037,7 @@
       </c>
       <c r="V5" s="26">
         <f t="shared" si="4"/>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="W5" s="26">
         <f t="shared" si="4"/>
@@ -2449,59 +3053,59 @@
       </c>
       <c r="Z5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AA5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AC5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AD5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AG5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AH5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AI5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AM5" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN5" s="26">
         <f t="shared" si="4"/>
@@ -3820,13 +4424,13 @@
         <v>75.0</v>
       </c>
       <c r="T20" s="55">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="U20" s="55">
         <v>70.0</v>
       </c>
       <c r="V20" s="55">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="W20" s="55">
         <v>65.0</v>
@@ -3913,13 +4517,13 @@
         <v>75.0</v>
       </c>
       <c r="T21" s="55">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="U21" s="55">
         <v>70.0</v>
       </c>
       <c r="V21" s="55">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="W21" s="55">
         <v>65.0</v>
@@ -4006,13 +4610,13 @@
         <v>75.0</v>
       </c>
       <c r="T22" s="55">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="U22" s="55">
         <v>70.0</v>
       </c>
       <c r="V22" s="55">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="W22" s="55">
         <v>65.0</v>
@@ -4099,13 +4703,13 @@
         <v>75.0</v>
       </c>
       <c r="T23" s="55">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="U23" s="55">
         <v>70.0</v>
       </c>
       <c r="V23" s="55">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="W23" s="55">
         <v>65.0</v>
@@ -4269,15 +4873,15 @@
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="41"/>
       <c r="AA25" s="41"/>
       <c r="AB25" s="41"/>
       <c r="AC25" s="41"/>
       <c r="AD25" s="41"/>
       <c r="AE25" s="41"/>
       <c r="AF25" s="41"/>
-      <c r="AG25" s="33"/>
+      <c r="AG25" s="58"/>
       <c r="AH25" s="37"/>
       <c r="AI25" s="37"/>
       <c r="AJ25" s="38"/>
@@ -4346,15 +4950,15 @@
       <c r="V26" s="38"/>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="40"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="41"/>
       <c r="AA26" s="41"/>
       <c r="AB26" s="41"/>
       <c r="AC26" s="41"/>
       <c r="AD26" s="41"/>
       <c r="AE26" s="41"/>
       <c r="AF26" s="41"/>
-      <c r="AG26" s="33"/>
+      <c r="AG26" s="58"/>
       <c r="AH26" s="37"/>
       <c r="AI26" s="37"/>
       <c r="AJ26" s="38"/>
@@ -4421,15 +5025,15 @@
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="33"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="58"/>
       <c r="AH27" s="37"/>
       <c r="AI27" s="37"/>
       <c r="AJ27" s="38"/>
@@ -4473,7 +5077,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -4500,15 +5104,29 @@
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="33"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AA28" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AB28" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AC28" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AD28" s="60">
+        <v>50.0</v>
+      </c>
+      <c r="AE28" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AF28" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AG28" s="58"/>
       <c r="AH28" s="37"/>
       <c r="AI28" s="37"/>
       <c r="AJ28" s="38"/>
@@ -4552,7 +5170,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="49" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -4579,15 +5197,29 @@
       <c r="V29" s="38"/>
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="33"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AA29" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AB29" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AC29" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AD29" s="60">
+        <v>50.0</v>
+      </c>
+      <c r="AE29" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AF29" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AG29" s="58"/>
       <c r="AH29" s="37"/>
       <c r="AI29" s="37"/>
       <c r="AJ29" s="38"/>
@@ -4631,7 +5263,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="31" t="s">
@@ -4658,15 +5290,29 @@
       <c r="V30" s="38"/>
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="33"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AA30" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AB30" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AC30" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AD30" s="60">
+        <v>50.0</v>
+      </c>
+      <c r="AE30" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AF30" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AG30" s="58"/>
       <c r="AH30" s="37"/>
       <c r="AI30" s="37"/>
       <c r="AJ30" s="38"/>
@@ -4710,7 +5356,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="49" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="43" t="s">
@@ -4737,15 +5383,29 @@
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="33"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AA31" s="60">
+        <v>60.0</v>
+      </c>
+      <c r="AB31" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AC31" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="AD31" s="60">
+        <v>50.0</v>
+      </c>
+      <c r="AE31" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AF31" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="AG31" s="58"/>
       <c r="AH31" s="37"/>
       <c r="AI31" s="37"/>
       <c r="AJ31" s="38"/>
@@ -4789,7 +5449,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C32" s="53"/>
@@ -4866,10 +5526,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="53"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="51"/>
       <c r="E33" s="33"/>
       <c r="F33" s="37"/>
@@ -4943,12 +5603,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="C34" s="42"/>
       <c r="D34" s="51"/>
       <c r="E34" s="33"/>
       <c r="F34" s="37"/>
@@ -5023,9 +5681,7 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="31" t="s">
-        <v>64</v>
-      </c>
+      <c r="C35" s="31"/>
       <c r="D35" s="51"/>
       <c r="E35" s="33"/>
       <c r="F35" s="37"/>
@@ -5099,9 +5755,11 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="49"/>
+      <c r="B36" s="49" t="s">
+        <v>91</v>
+      </c>
       <c r="C36" s="31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="33"/>
@@ -5132,13 +5790,27 @@
       <c r="AD36" s="41"/>
       <c r="AE36" s="41"/>
       <c r="AF36" s="41"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
-      <c r="AM36" s="39"/>
+      <c r="AG36" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AH36" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AI36" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AJ36" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AK36" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AL36" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AM36" s="62">
+        <v>45.0</v>
+      </c>
       <c r="AN36" s="40"/>
       <c r="AO36" s="41"/>
       <c r="AP36" s="41"/>
@@ -5176,9 +5848,11 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="43" t="s">
-        <v>68</v>
+      <c r="B37" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="D37" s="51"/>
       <c r="E37" s="33"/>
@@ -5209,13 +5883,27 @@
       <c r="AD37" s="41"/>
       <c r="AE37" s="41"/>
       <c r="AF37" s="41"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="39"/>
+      <c r="AG37" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AH37" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AI37" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AJ37" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AK37" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AL37" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AM37" s="62">
+        <v>45.0</v>
+      </c>
       <c r="AN37" s="40"/>
       <c r="AO37" s="41"/>
       <c r="AP37" s="41"/>
@@ -5253,8 +5941,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="D38" s="51"/>
       <c r="E38" s="33"/>
       <c r="F38" s="37"/>
@@ -5284,13 +5976,27 @@
       <c r="AD38" s="41"/>
       <c r="AE38" s="41"/>
       <c r="AF38" s="41"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="39"/>
+      <c r="AG38" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AH38" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AI38" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AJ38" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AK38" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AL38" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AM38" s="62">
+        <v>45.0</v>
+      </c>
       <c r="AN38" s="40"/>
       <c r="AO38" s="41"/>
       <c r="AP38" s="41"/>
@@ -5328,8 +6034,12 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>68</v>
+      </c>
       <c r="D39" s="51"/>
       <c r="E39" s="33"/>
       <c r="F39" s="37"/>
@@ -5359,13 +6069,27 @@
       <c r="AD39" s="41"/>
       <c r="AE39" s="41"/>
       <c r="AF39" s="41"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="38"/>
-      <c r="AK39" s="38"/>
-      <c r="AL39" s="38"/>
-      <c r="AM39" s="39"/>
+      <c r="AG39" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AH39" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AI39" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AJ39" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AK39" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AL39" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="AM39" s="62">
+        <v>45.0</v>
+      </c>
       <c r="AN39" s="40"/>
       <c r="AO39" s="41"/>
       <c r="AP39" s="41"/>
@@ -5403,10 +6127,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="B40" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="53"/>
       <c r="D40" s="51"/>
       <c r="E40" s="33"/>
       <c r="F40" s="37"/>
@@ -5480,10 +6204,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="31" t="s">
-        <v>64</v>
-      </c>
+      <c r="B41" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="53"/>
       <c r="D41" s="51"/>
       <c r="E41" s="33"/>
       <c r="F41" s="37"/>
@@ -5558,9 +6282,7 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="49"/>
-      <c r="C42" s="31" t="s">
-        <v>66</v>
-      </c>
+      <c r="C42" s="53"/>
       <c r="D42" s="51"/>
       <c r="E42" s="33"/>
       <c r="F42" s="37"/>
@@ -5635,8 +6357,8 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="49"/>
-      <c r="C43" s="43" t="s">
-        <v>68</v>
+      <c r="C43" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="33"/>
@@ -5712,7 +6434,9 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
+      <c r="C44" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="D44" s="51"/>
       <c r="E44" s="33"/>
       <c r="F44" s="37"/>
@@ -5787,7 +6511,9 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
+      <c r="C45" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="D45" s="51"/>
       <c r="E45" s="33"/>
       <c r="F45" s="37"/>
@@ -5862,8 +6588,8 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="49"/>
-      <c r="C46" s="31" t="s">
-        <v>62</v>
+      <c r="C46" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="33"/>
@@ -5939,9 +6665,7 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="49"/>
-      <c r="C47" s="31" t="s">
-        <v>64</v>
-      </c>
+      <c r="C47" s="49"/>
       <c r="D47" s="51"/>
       <c r="E47" s="33"/>
       <c r="F47" s="37"/>
@@ -6016,9 +6740,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="49"/>
-      <c r="C48" s="31" t="s">
-        <v>66</v>
-      </c>
+      <c r="C48" s="49"/>
       <c r="D48" s="51"/>
       <c r="E48" s="33"/>
       <c r="F48" s="37"/>
@@ -6092,11 +6814,9 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>68</v>
+      <c r="B49" s="49"/>
+      <c r="C49" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="33"/>
@@ -6171,8 +6891,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="53"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="D50" s="51"/>
       <c r="E50" s="33"/>
       <c r="F50" s="37"/>
@@ -6245,12 +6967,61 @@
       <c r="BU50" s="12"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="51"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41"/>
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="33"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="37"/>
+      <c r="AJ51" s="38"/>
+      <c r="AK51" s="38"/>
+      <c r="AL51" s="38"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="40"/>
+      <c r="AO51" s="41"/>
+      <c r="AP51" s="41"/>
+      <c r="AQ51" s="41"/>
+      <c r="AR51" s="41"/>
+      <c r="AS51" s="41"/>
+      <c r="AT51" s="41"/>
+      <c r="AU51" s="33"/>
+      <c r="AV51" s="37"/>
+      <c r="AW51" s="37"/>
+      <c r="AX51" s="38"/>
+      <c r="AY51" s="38"/>
+      <c r="AZ51" s="38"/>
+      <c r="BA51" s="39"/>
       <c r="BB51" s="12"/>
       <c r="BC51" s="12"/>
       <c r="BD51" s="12"/>
@@ -6273,14 +7044,63 @@
       <c r="BU51" s="12"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="1"/>
+      <c r="B52" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="41"/>
+      <c r="AC52" s="41"/>
+      <c r="AD52" s="41"/>
+      <c r="AE52" s="41"/>
+      <c r="AF52" s="41"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="38"/>
+      <c r="AK52" s="38"/>
+      <c r="AL52" s="38"/>
+      <c r="AM52" s="39"/>
+      <c r="AN52" s="40"/>
+      <c r="AO52" s="41"/>
+      <c r="AP52" s="41"/>
+      <c r="AQ52" s="41"/>
+      <c r="AR52" s="41"/>
+      <c r="AS52" s="41"/>
+      <c r="AT52" s="41"/>
+      <c r="AU52" s="33"/>
+      <c r="AV52" s="37"/>
+      <c r="AW52" s="37"/>
+      <c r="AX52" s="38"/>
+      <c r="AY52" s="38"/>
+      <c r="AZ52" s="38"/>
+      <c r="BA52" s="39"/>
       <c r="BB52" s="12"/>
       <c r="BC52" s="12"/>
       <c r="BD52" s="12"/>
@@ -6303,14 +7123,59 @@
       <c r="BU52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="38"/>
+      <c r="AK53" s="38"/>
+      <c r="AL53" s="38"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="40"/>
+      <c r="AO53" s="41"/>
+      <c r="AP53" s="41"/>
+      <c r="AQ53" s="41"/>
+      <c r="AR53" s="41"/>
+      <c r="AS53" s="41"/>
+      <c r="AT53" s="41"/>
+      <c r="AU53" s="33"/>
+      <c r="AV53" s="37"/>
+      <c r="AW53" s="37"/>
+      <c r="AX53" s="38"/>
+      <c r="AY53" s="38"/>
+      <c r="AZ53" s="38"/>
+      <c r="BA53" s="39"/>
       <c r="BB53" s="12"/>
       <c r="BC53" s="12"/>
       <c r="BD53" s="12"/>
@@ -6333,12 +7198,10 @@
       <c r="BU53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="60" t="s">
-        <v>93</v>
-      </c>
+      <c r="A54" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="53"/>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
       <c r="BB54" s="12"/>
@@ -6363,11 +7226,11 @@
       <c r="BU54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="60" t="s">
-        <v>93</v>
+      <c r="A55" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>98</v>
       </c>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
@@ -6393,11 +7256,11 @@
       <c r="BU55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="62">
-        <v>420.0</v>
+      <c r="A56" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>98</v>
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="45"/>
@@ -6423,8 +7286,12 @@
       <c r="BU56" s="12"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>98</v>
+      </c>
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
       <c r="BB57" s="12"/>
@@ -6449,8 +7316,12 @@
       <c r="BU57" s="12"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>98</v>
+      </c>
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
       <c r="BB58" s="12"/>
@@ -6475,10 +7346,14 @@
       <c r="BU58" s="12"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="64"/>
+      <c r="A59" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="68">
+        <v>420.0</v>
+      </c>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="BB59" s="12"/>
       <c r="BC59" s="12"/>
       <c r="BD59" s="12"/>
@@ -6503,6 +7378,8 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="BB60" s="12"/>
       <c r="BC60" s="12"/>
       <c r="BD60" s="12"/>
@@ -6527,6 +7404,8 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="BB61" s="12"/>
       <c r="BC61" s="12"/>
       <c r="BD61" s="12"/>
@@ -6551,6 +7430,8 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
       <c r="BB62" s="12"/>
       <c r="BC62" s="12"/>
       <c r="BD62" s="12"/>
@@ -29923,6 +30804,78 @@
       <c r="BS1035" s="12"/>
       <c r="BT1035" s="12"/>
       <c r="BU1035" s="12"/>
+    </row>
+    <row r="1036" ht="15.75" customHeight="1">
+      <c r="A1036" s="44"/>
+      <c r="B1036" s="44"/>
+      <c r="BB1036" s="12"/>
+      <c r="BC1036" s="12"/>
+      <c r="BD1036" s="12"/>
+      <c r="BE1036" s="12"/>
+      <c r="BF1036" s="12"/>
+      <c r="BG1036" s="12"/>
+      <c r="BH1036" s="12"/>
+      <c r="BI1036" s="12"/>
+      <c r="BJ1036" s="12"/>
+      <c r="BK1036" s="12"/>
+      <c r="BL1036" s="12"/>
+      <c r="BM1036" s="12"/>
+      <c r="BN1036" s="12"/>
+      <c r="BO1036" s="12"/>
+      <c r="BP1036" s="12"/>
+      <c r="BQ1036" s="12"/>
+      <c r="BR1036" s="12"/>
+      <c r="BS1036" s="12"/>
+      <c r="BT1036" s="12"/>
+      <c r="BU1036" s="12"/>
+    </row>
+    <row r="1037" ht="15.75" customHeight="1">
+      <c r="A1037" s="44"/>
+      <c r="B1037" s="44"/>
+      <c r="BB1037" s="12"/>
+      <c r="BC1037" s="12"/>
+      <c r="BD1037" s="12"/>
+      <c r="BE1037" s="12"/>
+      <c r="BF1037" s="12"/>
+      <c r="BG1037" s="12"/>
+      <c r="BH1037" s="12"/>
+      <c r="BI1037" s="12"/>
+      <c r="BJ1037" s="12"/>
+      <c r="BK1037" s="12"/>
+      <c r="BL1037" s="12"/>
+      <c r="BM1037" s="12"/>
+      <c r="BN1037" s="12"/>
+      <c r="BO1037" s="12"/>
+      <c r="BP1037" s="12"/>
+      <c r="BQ1037" s="12"/>
+      <c r="BR1037" s="12"/>
+      <c r="BS1037" s="12"/>
+      <c r="BT1037" s="12"/>
+      <c r="BU1037" s="12"/>
+    </row>
+    <row r="1038" ht="15.75" customHeight="1">
+      <c r="A1038" s="44"/>
+      <c r="B1038" s="44"/>
+      <c r="BB1038" s="12"/>
+      <c r="BC1038" s="12"/>
+      <c r="BD1038" s="12"/>
+      <c r="BE1038" s="12"/>
+      <c r="BF1038" s="12"/>
+      <c r="BG1038" s="12"/>
+      <c r="BH1038" s="12"/>
+      <c r="BI1038" s="12"/>
+      <c r="BJ1038" s="12"/>
+      <c r="BK1038" s="12"/>
+      <c r="BL1038" s="12"/>
+      <c r="BM1038" s="12"/>
+      <c r="BN1038" s="12"/>
+      <c r="BO1038" s="12"/>
+      <c r="BP1038" s="12"/>
+      <c r="BQ1038" s="12"/>
+      <c r="BR1038" s="12"/>
+      <c r="BS1038" s="12"/>
+      <c r="BT1038" s="12"/>
+      <c r="BU1038" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -29960,97 +30913,97 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="A1" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>98</v>
+      <c r="A2" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="67">
+      <c r="A3" s="73">
         <v>44486.0</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="72">
         <v>60.0</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="72">
         <v>60.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="67">
+      <c r="A4" s="73">
         <v>44487.0</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="72">
         <v>48.0</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="72">
         <v>60.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="67">
+      <c r="A5" s="73">
         <v>44488.0</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="72">
         <v>40.0</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="72">
         <v>40.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="67">
+      <c r="A6" s="73">
         <v>44489.0</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="72">
         <v>32.0</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="72">
         <v>40.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="67">
+      <c r="A7" s="73">
         <v>44490.0</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="72">
         <v>24.0</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="72">
         <v>20.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="67">
+      <c r="A8" s="73">
         <v>44491.0</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="72">
         <v>18.0</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="72">
         <v>20.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="67">
+      <c r="A9" s="73">
         <v>44492.0</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="72">
         <v>8.0</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="72">
         <v>0.0</v>
       </c>
     </row>
@@ -30065,97 +31018,97 @@
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="A20" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>98</v>
+      <c r="A21" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="67">
+      <c r="A22" s="73">
         <v>44493.0</v>
       </c>
-      <c r="B22" s="66">
+      <c r="B22" s="72">
         <v>60.0</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="72">
         <v>60.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="67">
+      <c r="A23" s="73">
         <v>44494.0</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="72">
         <v>48.0</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="72">
         <v>40.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="67">
+      <c r="A24" s="73">
         <v>44495.0</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="72">
         <v>40.0</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="72">
         <v>40.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="67">
+      <c r="A25" s="73">
         <v>44496.0</v>
       </c>
-      <c r="B25" s="66">
+      <c r="B25" s="72">
         <v>32.0</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="72">
         <v>20.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="67">
+      <c r="A26" s="73">
         <v>44497.0</v>
       </c>
-      <c r="B26" s="66">
+      <c r="B26" s="72">
         <v>24.0</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="72">
         <v>20.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="67">
+      <c r="A27" s="73">
         <v>44498.0</v>
       </c>
-      <c r="B27" s="66">
+      <c r="B27" s="72">
         <v>18.0</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="67">
+      <c r="A28" s="73">
         <v>44499.0</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="72">
         <v>8.0</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="72">
         <v>0.0</v>
       </c>
     </row>
@@ -30172,97 +31125,97 @@
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
+      <c r="A41" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>98</v>
+      <c r="A42" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="67">
+      <c r="A43" s="73">
         <v>44500.0</v>
       </c>
-      <c r="B43" s="66">
+      <c r="B43" s="72">
         <v>60.0</v>
       </c>
-      <c r="C43" s="66">
+      <c r="C43" s="72">
         <v>60.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="67">
+      <c r="A44" s="73">
         <v>44501.0</v>
       </c>
-      <c r="B44" s="66">
+      <c r="B44" s="72">
         <v>48.0</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="72">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="73">
+        <v>44502.0</v>
+      </c>
+      <c r="B45" s="72">
         <v>40.0</v>
       </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="67">
-        <v>44502.0</v>
-      </c>
-      <c r="B45" s="66">
+      <c r="C45" s="72">
         <v>40.0</v>
       </c>
-      <c r="C45" s="66">
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="73">
+        <v>44503.0</v>
+      </c>
+      <c r="B46" s="72">
+        <v>32.0</v>
+      </c>
+      <c r="C46" s="72">
         <v>40.0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="67">
-        <v>44503.0</v>
-      </c>
-      <c r="B46" s="66">
-        <v>32.0</v>
-      </c>
-      <c r="C46" s="66">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="73">
+        <v>44504.0</v>
+      </c>
+      <c r="B47" s="72">
+        <v>24.0</v>
+      </c>
+      <c r="C47" s="72">
         <v>20.0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="67">
-        <v>44504.0</v>
-      </c>
-      <c r="B47" s="66">
-        <v>24.0</v>
-      </c>
-      <c r="C47" s="66">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="73">
+        <v>44505.0</v>
+      </c>
+      <c r="B48" s="72">
+        <v>18.0</v>
+      </c>
+      <c r="C48" s="72">
         <v>20.0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="67">
-        <v>44505.0</v>
-      </c>
-      <c r="B48" s="66">
-        <v>18.0</v>
-      </c>
-      <c r="C48" s="66">
-        <v>0.0</v>
-      </c>
-    </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="67">
+      <c r="A49" s="73">
         <v>44506.0</v>
       </c>
-      <c r="B49" s="66">
+      <c r="B49" s="72">
         <v>8.0</v>
       </c>
-      <c r="C49" s="66">
+      <c r="C49" s="72">
         <v>0.0</v>
       </c>
     </row>
@@ -30276,15 +31229,101 @@
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="73">
+        <v>44507.0</v>
+      </c>
+      <c r="B62" s="72">
+        <v>60.0</v>
+      </c>
+      <c r="C62" s="72">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="73">
+        <v>44508.0</v>
+      </c>
+      <c r="B63" s="72">
+        <v>48.0</v>
+      </c>
+      <c r="C63" s="72">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="73">
+        <v>44509.0</v>
+      </c>
+      <c r="B64" s="72">
+        <v>40.0</v>
+      </c>
+      <c r="C64" s="72">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="73">
+        <v>44510.0</v>
+      </c>
+      <c r="B65" s="72">
+        <v>32.0</v>
+      </c>
+      <c r="C65" s="72">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="73">
+        <v>44511.0</v>
+      </c>
+      <c r="B66" s="72">
+        <v>24.0</v>
+      </c>
+      <c r="C66" s="72">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="73">
+        <v>44512.0</v>
+      </c>
+      <c r="B67" s="72">
+        <v>18.0</v>
+      </c>
+      <c r="C67" s="72">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="73">
+        <v>44513.0</v>
+      </c>
+      <c r="B68" s="72">
+        <v>8.0</v>
+      </c>
+      <c r="C68" s="72">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
@@ -30295,15 +31334,80 @@
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="73">
+        <v>44514.0</v>
+      </c>
+      <c r="B81" s="72">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="73">
+        <v>44515.0</v>
+      </c>
+      <c r="B82" s="72">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="73">
+        <v>44516.0</v>
+      </c>
+      <c r="B83" s="72">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="73">
+        <v>44517.0</v>
+      </c>
+      <c r="B84" s="72">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="73">
+        <v>44518.0</v>
+      </c>
+      <c r="B85" s="72">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="73">
+        <v>44519.0</v>
+      </c>
+      <c r="B86" s="72">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="73">
+        <v>44520.0</v>
+      </c>
+      <c r="B87" s="72">
+        <v>8.0</v>
+      </c>
+    </row>
     <row r="88" ht="15.75" customHeight="1"/>
     <row r="89" ht="15.75" customHeight="1"/>
     <row r="90" ht="15.75" customHeight="1"/>
